--- a/Practica 3/excel_medidas.xlsx
+++ b/Practica 3/excel_medidas.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Foglio1" sheetId="1" r:id="rId1"/>
@@ -336,8 +336,8 @@
         <c:grouping val="standard"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
+          <c:idx val="7"/>
+          <c:order val="1"/>
           <c:tx>
             <c:strRef>
               <c:f>Foglio1!$A$42</c:f>
@@ -351,7 +351,9 @@
           </c:tx>
           <c:spPr>
             <a:solidFill>
-              <a:srgbClr val="7030A0"/>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="60000"/>
+              </a:schemeClr>
             </a:solidFill>
             <a:ln>
               <a:noFill/>
@@ -360,50 +362,19 @@
             <a:sp3d/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$35:$E$35</c:f>
-              <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
-                  <c:v>opt: -O0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>opt: -O1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>opt: -O2</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$42:$E$42</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$42:$E$42</c:f>
+              <c:f>Foglio1!$B$42:$E$42</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>2495.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>1320.8</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>1348.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -412,7 +383,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
-          <c:order val="1"/>
+          <c:order val="2"/>
           <c:tx>
             <c:strRef>
               <c:f>Foglio1!$A$41</c:f>
@@ -437,23 +408,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$35:$E$35</c:f>
+              <c:f>Foglio1!$B$35:$E$35</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>opt: -O0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>opt: -O1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>opt: -O2</c:v>
                 </c:pt>
               </c:strCache>
@@ -461,24 +425,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$41:$E$41</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$41:$E$41</c:f>
+              <c:f>Foglio1!$B$41:$E$41</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>3727.6</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>880.7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>885.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -487,7 +444,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
-          <c:order val="2"/>
+          <c:order val="3"/>
           <c:tx>
             <c:strRef>
               <c:f>Foglio1!$A$40</c:f>
@@ -512,23 +469,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$35:$E$35</c:f>
+              <c:f>Foglio1!$B$35:$E$35</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>opt: -O0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>opt: -O1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>opt: -O2</c:v>
                 </c:pt>
               </c:strCache>
@@ -536,24 +486,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$40:$E$40</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$40:$E$40</c:f>
+              <c:f>Foglio1!$B$40:$E$40</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>1266.9000000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>636.70000000000005</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>594.20000000000005</c:v>
                 </c:pt>
               </c:numCache>
@@ -562,7 +505,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
-          <c:order val="3"/>
+          <c:order val="4"/>
           <c:tx>
             <c:strRef>
               <c:f>Foglio1!$A$39</c:f>
@@ -587,23 +530,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$35:$E$35</c:f>
+              <c:f>Foglio1!$B$35:$E$35</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>opt: -O0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>opt: -O1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>opt: -O2</c:v>
                 </c:pt>
               </c:strCache>
@@ -611,24 +547,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$39:$E$39</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$39:$E$39</c:f>
+              <c:f>Foglio1!$B$39:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>28459.200000000001</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>7335.7</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>10771.8</c:v>
                 </c:pt>
               </c:numCache>
@@ -637,7 +566,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="4"/>
-          <c:order val="4"/>
+          <c:order val="5"/>
           <c:tx>
             <c:strRef>
               <c:f>Foglio1!$A$38</c:f>
@@ -662,23 +591,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$35:$E$35</c:f>
+              <c:f>Foglio1!$B$35:$E$35</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>opt: -O0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>opt: -O1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>opt: -O2</c:v>
                 </c:pt>
               </c:strCache>
@@ -686,24 +608,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$38:$E$38</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$38:$E$38</c:f>
+              <c:f>Foglio1!$B$38:$E$38</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>17159.5</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>16096.6</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>24117.111111111109</c:v>
                 </c:pt>
               </c:numCache>
@@ -712,7 +627,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="5"/>
-          <c:order val="5"/>
+          <c:order val="6"/>
           <c:tx>
             <c:strRef>
               <c:f>Foglio1!$A$37</c:f>
@@ -737,23 +652,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$35:$E$35</c:f>
+              <c:f>Foglio1!$B$35:$E$35</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>opt: -O0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>opt: -O1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>opt: -O2</c:v>
                 </c:pt>
               </c:strCache>
@@ -761,24 +669,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$37:$E$37</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$37:$E$37</c:f>
+              <c:f>Foglio1!$B$37:$E$37</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>57739.8</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>24445</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>16681.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -787,7 +688,7 @@
         </c:ser>
         <c:ser>
           <c:idx val="6"/>
-          <c:order val="6"/>
+          <c:order val="7"/>
           <c:tx>
             <c:strRef>
               <c:f>Foglio1!$A$36</c:f>
@@ -812,23 +713,16 @@
           <c:invertIfNegative val="0"/>
           <c:cat>
             <c:strRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$35:$E$35</c:f>
+              <c:f>Foglio1!$B$35:$E$35</c:f>
               <c:strCache>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>opt: -O0</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>opt: -O1</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>opt: -O2</c:v>
                 </c:pt>
               </c:strCache>
@@ -836,24 +730,17 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:extLst>
-                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
-                  <c15:fullRef>
-                    <c15:sqref>Foglio1!$B$36:$E$36</c15:sqref>
-                  </c15:fullRef>
-                </c:ext>
-              </c:extLst>
-              <c:f>Foglio1!$C$36:$E$36</c:f>
+              <c:f>Foglio1!$B$36:$E$36</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="3"/>
-                <c:pt idx="0">
+                <c:ptCount val="4"/>
+                <c:pt idx="1">
                   <c:v>124845.1</c:v>
                 </c:pt>
-                <c:pt idx="1">
+                <c:pt idx="2">
                   <c:v>48553.599999999999</c:v>
                 </c:pt>
-                <c:pt idx="2">
+                <c:pt idx="3">
                   <c:v>50527.7</c:v>
                 </c:pt>
               </c:numCache>
@@ -873,6 +760,91 @@
         <c:axId val="1387010176"/>
         <c:axId val="1387011808"/>
         <c:axId val="1279947360"/>
+        <c:extLst>
+          <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+            <c15:filteredBarSeries>
+              <c15:ser>
+                <c:idx val="0"/>
+                <c:order val="0"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$A$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>popcount7</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:solidFill>
+                    <a:srgbClr val="7030A0"/>
+                  </a:solidFill>
+                  <a:ln>
+                    <a:noFill/>
+                  </a:ln>
+                  <a:effectLst/>
+                  <a:sp3d/>
+                </c:spPr>
+                <c:invertIfNegative val="0"/>
+                <c:cat>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$35:$E$35</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="1">
+                        <c:v>opt: -O0</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>opt: -O1</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>opt: -O2</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Foglio1!$B$42:$E$42</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="4"/>
+                      <c:pt idx="1">
+                        <c:v>2495.1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1320.8</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1348.7</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+              </c15:ser>
+            </c15:filteredBarSeries>
+          </c:ext>
+        </c:extLst>
       </c:bar3DChart>
       <c:catAx>
         <c:axId val="1387010176"/>
@@ -999,10 +971,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
-      <c:legendEntry>
-        <c:idx val="0"/>
-        <c:delete val="1"/>
-      </c:legendEntry>
       <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
@@ -5213,8 +5181,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V42"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U43" sqref="U43"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N40" sqref="N40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6805,7 +6773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D30" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="D30" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="A37" sqref="A37:E38"/>
     </sheetView>
   </sheetViews>
